--- a/door_hangers.xlsx
+++ b/door_hangers.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\playwright-node-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9139F3-9C52-48BA-B68F-29BC207A5398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626DE358-CF03-41E7-96D7-44DCC422E645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5F8CC082-C405-4A3D-B3D5-250806FD306D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{5F8CC082-C405-4A3D-B3D5-250806FD306D}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
     <sheet name="Paper Type" sheetId="2" r:id="rId2"/>
+    <sheet name="front &amp; back" sheetId="3" r:id="rId3"/>
+    <sheet name="Coating" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="17">
   <si>
     <t>3.5" x 8.5"</t>
   </si>
@@ -78,6 +80,15 @@
   </si>
   <si>
     <t>100LB Gloss Book</t>
+  </si>
+  <si>
+    <t>4/4 (4 color both sides)</t>
+  </si>
+  <si>
+    <t>UV on 4-color side</t>
+  </si>
+  <si>
+    <t>Satin Aqueous</t>
   </si>
 </sst>
 </file>
@@ -1283,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{202E6A20-B0A0-4D5C-BCB4-16E1C4D16C60}">
   <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A184" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -5142,4 +5153,4169 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3360FA8-6AAC-444E-A382-EB506A039714}">
+  <dimension ref="A1:G93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>250</v>
+      </c>
+      <c r="G1">
+        <v>455.72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2">
+        <v>481.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>533.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2500</v>
+      </c>
+      <c r="G4">
+        <v>800.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5000</v>
+      </c>
+      <c r="G5">
+        <v>1347.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+      <c r="G6">
+        <v>2623.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>15000</v>
+      </c>
+      <c r="G7">
+        <v>3710.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>20000</v>
+      </c>
+      <c r="G8">
+        <v>4850.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>25000</v>
+      </c>
+      <c r="G9">
+        <v>5989.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>250</v>
+      </c>
+      <c r="G13">
+        <v>462.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>488.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>540.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2500</v>
+      </c>
+      <c r="G16">
+        <v>839.84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5000</v>
+      </c>
+      <c r="G17">
+        <v>1425.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+      <c r="G18">
+        <v>2831.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>15000</v>
+      </c>
+      <c r="G19">
+        <v>4036.32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>20000</v>
+      </c>
+      <c r="G20">
+        <v>5305.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>25000</v>
+      </c>
+      <c r="G21">
+        <v>6542.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>250</v>
+      </c>
+      <c r="G25">
+        <v>455.72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>500</v>
+      </c>
+      <c r="G26">
+        <v>481.72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
+        <v>533.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>2500</v>
+      </c>
+      <c r="G28">
+        <v>800.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>5000</v>
+      </c>
+      <c r="G29">
+        <v>1367.12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>10000</v>
+      </c>
+      <c r="G30">
+        <v>2630.12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>15000</v>
+      </c>
+      <c r="G31">
+        <v>3808.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>20000</v>
+      </c>
+      <c r="G32">
+        <v>4986.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>25000</v>
+      </c>
+      <c r="G33">
+        <v>6165.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>250</v>
+      </c>
+      <c r="G37">
+        <v>462.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>500</v>
+      </c>
+      <c r="G38">
+        <v>488.28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>1000</v>
+      </c>
+      <c r="G39">
+        <v>540.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>2500</v>
+      </c>
+      <c r="G40">
+        <v>839.84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>5000</v>
+      </c>
+      <c r="G41">
+        <v>1438.76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>10000</v>
+      </c>
+      <c r="G42">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>15000</v>
+      </c>
+      <c r="G43">
+        <v>4147.04</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>20000</v>
+      </c>
+      <c r="G44">
+        <v>5449.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>25000</v>
+      </c>
+      <c r="G45">
+        <v>6744.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>250</v>
+      </c>
+      <c r="G49">
+        <v>540.36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50">
+        <v>500</v>
+      </c>
+      <c r="G50">
+        <v>572.91999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>1000</v>
+      </c>
+      <c r="G51">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>2500</v>
+      </c>
+      <c r="G52">
+        <v>996.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>5000</v>
+      </c>
+      <c r="G53">
+        <v>1627.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>10000</v>
+      </c>
+      <c r="G54">
+        <v>3235.56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>15000</v>
+      </c>
+      <c r="G55">
+        <v>4622.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>20000</v>
+      </c>
+      <c r="G56">
+        <v>6054.52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>25000</v>
+      </c>
+      <c r="G57">
+        <v>7473.72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>250</v>
+      </c>
+      <c r="G61">
+        <v>605.44000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>500</v>
+      </c>
+      <c r="G62">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>1000</v>
+      </c>
+      <c r="G63">
+        <v>709.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>2500</v>
+      </c>
+      <c r="G64">
+        <v>1087.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>5000</v>
+      </c>
+      <c r="G65">
+        <v>1852.12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>10000</v>
+      </c>
+      <c r="G66">
+        <v>3580.68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>15000</v>
+      </c>
+      <c r="G67">
+        <v>5273.28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>20000</v>
+      </c>
+      <c r="G68">
+        <v>6900.84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>25000</v>
+      </c>
+      <c r="G69">
+        <v>8560.92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>250</v>
+      </c>
+      <c r="G73">
+        <v>1051.4000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>500</v>
+      </c>
+      <c r="G74">
+        <v>1113.24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>1000</v>
+      </c>
+      <c r="G75">
+        <v>1236.92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>2500</v>
+      </c>
+      <c r="G76">
+        <v>1874.92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>5000</v>
+      </c>
+      <c r="G77">
+        <v>2955.64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>10000</v>
+      </c>
+      <c r="G78">
+        <v>5624.8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>15000</v>
+      </c>
+      <c r="G79">
+        <v>8040.12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>20000</v>
+      </c>
+      <c r="G80">
+        <v>10715.8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>25000</v>
+      </c>
+      <c r="G81">
+        <v>12695</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85">
+        <v>250</v>
+      </c>
+      <c r="G85">
+        <v>1051.4000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>500</v>
+      </c>
+      <c r="G86">
+        <v>1113.24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>1000</v>
+      </c>
+      <c r="G87">
+        <v>1236.92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>2500</v>
+      </c>
+      <c r="G88">
+        <v>1874.92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>5000</v>
+      </c>
+      <c r="G89">
+        <v>2955.64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>10000</v>
+      </c>
+      <c r="G90">
+        <v>5624.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>15000</v>
+      </c>
+      <c r="G91">
+        <v>8040.12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>20000</v>
+      </c>
+      <c r="G92">
+        <v>10715.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>25000</v>
+      </c>
+      <c r="G93">
+        <v>12695</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F1721B-E070-45EB-AC47-F9E81856FB96}">
+  <dimension ref="A1:G143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>250</v>
+      </c>
+      <c r="G1">
+        <v>455.72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+      <c r="G2">
+        <v>481.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>533.84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2500</v>
+      </c>
+      <c r="G4">
+        <v>800.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5000</v>
+      </c>
+      <c r="G5">
+        <v>1347.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>10000</v>
+      </c>
+      <c r="G6">
+        <v>2623.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>15000</v>
+      </c>
+      <c r="G7">
+        <v>3710.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>20000</v>
+      </c>
+      <c r="G8">
+        <v>4850.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>25000</v>
+      </c>
+      <c r="G9">
+        <v>5989.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>250</v>
+      </c>
+      <c r="G13">
+        <v>455.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>500</v>
+      </c>
+      <c r="G14">
+        <v>481.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>1000</v>
+      </c>
+      <c r="G15">
+        <v>533.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2500</v>
+      </c>
+      <c r="G16">
+        <v>800.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>5000</v>
+      </c>
+      <c r="G17">
+        <v>1347.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>10000</v>
+      </c>
+      <c r="G18">
+        <v>2623.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>15000</v>
+      </c>
+      <c r="G19">
+        <v>3710.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>20000</v>
+      </c>
+      <c r="G20">
+        <v>4850.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>25000</v>
+      </c>
+      <c r="G21">
+        <v>5989.36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>250</v>
+      </c>
+      <c r="G25">
+        <v>461.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>500</v>
+      </c>
+      <c r="G26">
+        <v>230.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>1000</v>
+      </c>
+      <c r="G27">
+        <v>271.39999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>2500</v>
+      </c>
+      <c r="G28">
+        <v>461.92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>5000</v>
+      </c>
+      <c r="G29">
+        <v>739.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30">
+        <v>10000</v>
+      </c>
+      <c r="G30">
+        <v>1466.56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31">
+        <v>15000</v>
+      </c>
+      <c r="G31">
+        <v>2171.08</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>20000</v>
+      </c>
+      <c r="G32">
+        <v>2858.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>25000</v>
+      </c>
+      <c r="G33">
+        <v>3545.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>500</v>
+      </c>
+      <c r="G37">
+        <v>207.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>1000</v>
+      </c>
+      <c r="G38">
+        <v>242.68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>2500</v>
+      </c>
+      <c r="G39">
+        <v>414.28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <v>5000</v>
+      </c>
+      <c r="G40">
+        <v>662.88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>10000</v>
+      </c>
+      <c r="G41">
+        <v>1313.88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42">
+        <v>15000</v>
+      </c>
+      <c r="G42">
+        <v>1947.16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>20000</v>
+      </c>
+      <c r="G43">
+        <v>2562.6799999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>25000</v>
+      </c>
+      <c r="G44">
+        <v>3178.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>250</v>
+      </c>
+      <c r="G51">
+        <v>455.72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>500</v>
+      </c>
+      <c r="G52">
+        <v>481.72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <v>1000</v>
+      </c>
+      <c r="G53">
+        <v>533.84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54">
+        <v>2500</v>
+      </c>
+      <c r="G54">
+        <v>800.72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>5000</v>
+      </c>
+      <c r="G55">
+        <v>1367.12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56">
+        <v>10000</v>
+      </c>
+      <c r="G56">
+        <v>2630.12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>15000</v>
+      </c>
+      <c r="G57">
+        <v>3808.48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58">
+        <v>20000</v>
+      </c>
+      <c r="G58">
+        <v>4986.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>25000</v>
+      </c>
+      <c r="G59">
+        <v>6165.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <v>250</v>
+      </c>
+      <c r="G63">
+        <v>455.72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>500</v>
+      </c>
+      <c r="G64">
+        <v>481.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>1000</v>
+      </c>
+      <c r="G65">
+        <v>533.84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>2500</v>
+      </c>
+      <c r="G66">
+        <v>800.72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>5000</v>
+      </c>
+      <c r="G67">
+        <v>1367.12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>10000</v>
+      </c>
+      <c r="G68">
+        <v>2630.12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>15000</v>
+      </c>
+      <c r="G69">
+        <v>3808.48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>20000</v>
+      </c>
+      <c r="G70">
+        <v>4986.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>25000</v>
+      </c>
+      <c r="G71">
+        <v>6165.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75">
+        <v>250</v>
+      </c>
+      <c r="G75">
+        <v>540.36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>500</v>
+      </c>
+      <c r="G76">
+        <v>572.91999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77">
+        <v>1000</v>
+      </c>
+      <c r="G77">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78">
+        <v>2500</v>
+      </c>
+      <c r="G78">
+        <v>996.04</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>5000</v>
+      </c>
+      <c r="G79">
+        <v>1627.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>10000</v>
+      </c>
+      <c r="G80">
+        <v>3235.56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81">
+        <v>15000</v>
+      </c>
+      <c r="G81">
+        <v>4622.24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82">
+        <v>20000</v>
+      </c>
+      <c r="G82">
+        <v>6054.52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>25000</v>
+      </c>
+      <c r="G83">
+        <v>7473.72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4</v>
+      </c>
+      <c r="F87">
+        <v>250</v>
+      </c>
+      <c r="G87">
+        <v>540.36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>500</v>
+      </c>
+      <c r="G88">
+        <v>572.91999999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89">
+        <v>1000</v>
+      </c>
+      <c r="G89">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>2500</v>
+      </c>
+      <c r="G90">
+        <v>996.04</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>5000</v>
+      </c>
+      <c r="G91">
+        <v>1627.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>10000</v>
+      </c>
+      <c r="G92">
+        <v>3235.56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93">
+        <v>15000</v>
+      </c>
+      <c r="G93">
+        <v>4622.24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>20000</v>
+      </c>
+      <c r="G94">
+        <v>6054.52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95">
+        <v>25000</v>
+      </c>
+      <c r="G95">
+        <v>7473.72</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99">
+        <v>250</v>
+      </c>
+      <c r="G99">
+        <v>323.36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100">
+        <v>500</v>
+      </c>
+      <c r="G100">
+        <v>386.88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>16</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>1000</v>
+      </c>
+      <c r="G101">
+        <v>548.55999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102">
+        <v>2500</v>
+      </c>
+      <c r="G102">
+        <v>675.56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>5000</v>
+      </c>
+      <c r="G103">
+        <v>1056.5999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104">
+        <v>10000</v>
+      </c>
+      <c r="G104">
+        <v>2095.96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105">
+        <v>15000</v>
+      </c>
+      <c r="G105">
+        <v>3135.28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>20000</v>
+      </c>
+      <c r="G106">
+        <v>4145.76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>16</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107">
+        <v>25000</v>
+      </c>
+      <c r="G107">
+        <v>5156.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F111">
+        <v>100</v>
+      </c>
+      <c r="G111">
+        <v>219.44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112">
+        <v>500</v>
+      </c>
+      <c r="G112">
+        <v>282.92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>1000</v>
+      </c>
+      <c r="G113">
+        <v>340.68</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <v>2500</v>
+      </c>
+      <c r="G114">
+        <v>588.96</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F115">
+        <v>5000</v>
+      </c>
+      <c r="G115">
+        <v>920.92</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116">
+        <v>10000</v>
+      </c>
+      <c r="G116">
+        <v>1830.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>12</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>15000</v>
+      </c>
+      <c r="G117">
+        <v>2742.72</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>20000</v>
+      </c>
+      <c r="G118">
+        <v>3626.12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>25000</v>
+      </c>
+      <c r="G119">
+        <v>4509.5200000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123">
+        <v>250</v>
+      </c>
+      <c r="G123">
+        <v>1051.4000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>500</v>
+      </c>
+      <c r="G124">
+        <v>1113.24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>1000</v>
+      </c>
+      <c r="G125">
+        <v>1236.92</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>2500</v>
+      </c>
+      <c r="G126">
+        <v>1874.92</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>5000</v>
+      </c>
+      <c r="G127">
+        <v>2955.64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128">
+        <v>10000</v>
+      </c>
+      <c r="G128">
+        <v>5624.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F129">
+        <v>15000</v>
+      </c>
+      <c r="G129">
+        <v>8040.12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130">
+        <v>20000</v>
+      </c>
+      <c r="G130">
+        <v>10715.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>4</v>
+      </c>
+      <c r="F131">
+        <v>25000</v>
+      </c>
+      <c r="G131">
+        <v>12695</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135">
+        <v>250</v>
+      </c>
+      <c r="G135">
+        <v>1051.4000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136">
+        <v>500</v>
+      </c>
+      <c r="G136">
+        <v>1113.24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4</v>
+      </c>
+      <c r="F137">
+        <v>1000</v>
+      </c>
+      <c r="G137">
+        <v>1236.92</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138">
+        <v>2500</v>
+      </c>
+      <c r="G138">
+        <v>1874.92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139">
+        <v>5000</v>
+      </c>
+      <c r="G139">
+        <v>2955.64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140">
+        <v>10000</v>
+      </c>
+      <c r="G140">
+        <v>5624.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4</v>
+      </c>
+      <c r="F141">
+        <v>15000</v>
+      </c>
+      <c r="G141">
+        <v>8040.12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" t="s">
+        <v>4</v>
+      </c>
+      <c r="F142">
+        <v>20000</v>
+      </c>
+      <c r="G142">
+        <v>10715.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" t="s">
+        <v>4</v>
+      </c>
+      <c r="F143">
+        <v>25000</v>
+      </c>
+      <c r="G143">
+        <v>12695</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>